--- a/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy.xlsx
+++ b/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="357">
   <si>
     <t>Original Text</t>
   </si>
@@ -25,523 +25,1066 @@
     <t>Confidence Level</t>
   </si>
   <si>
-    <t>be fitters</t>
-  </si>
-  <si>
-    <t>I'm your coach today</t>
-  </si>
-  <si>
-    <t>Allie Cohen did you know</t>
-  </si>
-  <si>
-    <t>protein can help muscle recovery after workout</t>
-  </si>
-  <si>
-    <t>check out be fit whey protein and get your own at be fit calm you ready to get sweaty</t>
-  </si>
-  <si>
-    <t>I have a quick 10 minute workout for you</t>
-  </si>
-  <si>
-    <t>today it has four circuits two strength moves and one cardio move you guys ready to go</t>
-  </si>
-  <si>
-    <t>let's do it all right</t>
-  </si>
-  <si>
-    <t>we're going to start with a warm up</t>
-  </si>
-  <si>
-    <t>we're going to go into a wide squat squat right here feet back in the center and then one to the other side</t>
-  </si>
-  <si>
-    <t>good so you're doing one right and one left</t>
-  </si>
-  <si>
-    <t>let's go to the side good</t>
-  </si>
-  <si>
-    <t>give me that squat</t>
-  </si>
-  <si>
-    <t>we're just getting those legs</t>
-  </si>
-  <si>
-    <t>nice and warm</t>
-  </si>
-  <si>
-    <t>big inhale big exhale</t>
-  </si>
-  <si>
-    <t>perfect getting that body ready to get really sweaty perfect</t>
-  </si>
-  <si>
-    <t>go ahead back to the middle again side</t>
-  </si>
-  <si>
-    <t>step your arms just in front of you</t>
-  </si>
-  <si>
-    <t>keep that chest up weight in the center</t>
-  </si>
-  <si>
-    <t>good get that breath going</t>
-  </si>
-  <si>
-    <t>that breath is gonna help with your movements</t>
-  </si>
-  <si>
-    <t>you want to make sure you keep breathing</t>
-  </si>
-  <si>
-    <t>good one more each side and back to the middle press off that heel good you look great last one good right into jump rope so your feet are just going to go side to side arms right by your side circling like you would a jump rope and you want to again</t>
-  </si>
-  <si>
-    <t>big inhale big exhale get that blood moving flowin wakin up that body perfect nice and easy light on those toes</t>
-  </si>
-  <si>
-    <t>alright we're gonna go for five more ready five four three</t>
-  </si>
-  <si>
-    <t>you're doing great two more and last one good shake it out alright first circuit</t>
-  </si>
-  <si>
-    <t>you're gonna go ahead and pick up a set of light dumbbells now</t>
-  </si>
-  <si>
-    <t>you want to get something light but not too light</t>
-  </si>
-  <si>
-    <t>you want to keep the form</t>
-  </si>
-  <si>
-    <t>don't be afraid to pick up heavier weight</t>
-  </si>
-  <si>
-    <t>roll your shoulders back</t>
-  </si>
-  <si>
-    <t>we're coming into a squat position you're gonna curl the dumbbells and press straight up all right</t>
-  </si>
-  <si>
-    <t>let's try it chest up on this as we squat good elbows in by your side</t>
-  </si>
-  <si>
-    <t>press it straight up and back down perfect so you got this loop</t>
-  </si>
-  <si>
-    <t>we're getting the arms press it straight up all the way back down good chest up but don't forget to breathe squeeze those abs press it straight up</t>
-  </si>
-  <si>
-    <t>you got it good weight in the heels abs in tight</t>
-  </si>
-  <si>
-    <t>press it up good</t>
-  </si>
-  <si>
-    <t>give me one more chest up curl the dumbbells and press it up</t>
-  </si>
-  <si>
-    <t>beautiful all right</t>
-  </si>
-  <si>
-    <t>the next move is a lateral lunge with the row</t>
-  </si>
-  <si>
-    <t>you're going to set to the side flat back row the dumbbells back down and then switch legs other side</t>
-  </si>
-  <si>
-    <t>row it back down</t>
-  </si>
-  <si>
-    <t>let's go you guys</t>
-  </si>
-  <si>
-    <t>one straight supporting leg flat back back to the middle good lunge row down but let's pick up that pace okay</t>
-  </si>
-  <si>
-    <t>now it's in our body row good exactly</t>
-  </si>
-  <si>
-    <t>I want a big exhale Michelle</t>
-  </si>
-  <si>
-    <t>I hear you breathing back here</t>
-  </si>
-  <si>
-    <t>that's perfect Chandler</t>
-  </si>
-  <si>
-    <t>use that breath good</t>
-  </si>
-  <si>
-    <t>my team kicks booty flat back</t>
-  </si>
-  <si>
-    <t>you guys are killing it looking so good you have one more each side row it press off that heal</t>
-  </si>
-  <si>
-    <t>good back is nice and flat last one back to the middle good set your weights down because we have our first cardio move arms come up nice smash it right down</t>
-  </si>
-  <si>
-    <t>the center of your chest is gonna get the cardio going abs working</t>
-  </si>
-  <si>
-    <t>let's go you guys down down down</t>
-  </si>
-  <si>
-    <t>good big exhale down that check perfect you want to chop those arms straight down</t>
-  </si>
-  <si>
-    <t>the side of your body knee comes up big exhale each time nice</t>
-  </si>
-  <si>
-    <t>Chandler perfect when the knees come up you're gonna feel those ABS contracting and you're doing it just fine keep going you have five more four more three more two more and last one</t>
-  </si>
-  <si>
-    <t>good your first break</t>
-  </si>
-  <si>
-    <t>take a sip of water if you need it but these are quick</t>
-  </si>
-  <si>
-    <t>we're gonna move very shortly so for this next circuit all you're gonna need is one dumbbell</t>
-  </si>
-  <si>
-    <t>okay one dumbbell for this next this next block so first move</t>
-  </si>
-  <si>
-    <t>we're gonna start with our feet together</t>
-  </si>
-  <si>
-    <t>go with the forward lunge chop it to the side</t>
-  </si>
-  <si>
-    <t>press off the heel and switch sides all right you ready</t>
-  </si>
-  <si>
-    <t>Michelle all right</t>
-  </si>
-  <si>
-    <t>knee in line with that heel lunge and back to the center</t>
-  </si>
-  <si>
-    <t>good lunge back to the center chest up beautiful and you keep that dumbbell in that chest</t>
-  </si>
-  <si>
-    <t>good it comes right to the side on that chop to getting those abs in with those legs perfect one more each side back to the middle last one good work perfect all right move to</t>
-  </si>
-  <si>
-    <t>I want you to put your toes out in a nice plie squat position elbows behind you right by your ears</t>
-  </si>
-  <si>
-    <t>wait behind your head</t>
-  </si>
-  <si>
-    <t>you're going to take the weight down in a plie squat drive it up towards the ceiling back to hit those triceps so we open it up</t>
-  </si>
-  <si>
-    <t>let's do it lower and squeeze it up</t>
-  </si>
-  <si>
-    <t>press it back good chest up all the way down up squeeze now we know the moves so we can get into it down up</t>
-  </si>
-  <si>
-    <t>good squeeze those sides together</t>
-  </si>
-  <si>
-    <t>I want you to squeeze your buns</t>
-  </si>
-  <si>
-    <t>nice and tight abs in tight</t>
-  </si>
-  <si>
-    <t>good this is my B of a full body</t>
-  </si>
-  <si>
-    <t>okay you got fun arms abs</t>
-  </si>
-  <si>
-    <t>everything's going three more come on back</t>
-  </si>
-  <si>
-    <t>she wore down nice</t>
-  </si>
-  <si>
-    <t>you guys are doing great</t>
-  </si>
-  <si>
-    <t>you have one left after this and then we go to our cardio move beautiful</t>
-  </si>
-  <si>
-    <t>set that weight down</t>
-  </si>
-  <si>
-    <t>alright cardio move is gonna be hop hop reach down hop hop reach down you guys</t>
-  </si>
-  <si>
-    <t>let's go hop hop chest up good really reach with a strong arm</t>
-  </si>
-  <si>
-    <t>stick that booty out and chest up</t>
-  </si>
-  <si>
-    <t>that's right we always stick it out right</t>
-  </si>
-  <si>
-    <t>good hop hop squeeze good big exhale yep this is a cardio move so right now is when you're gonna start to probably break a sweat if you haven't already good ha ha down ha ha down two more last one beautiful all right quick</t>
-  </si>
-  <si>
-    <t>break rabbits if you need it we're going into circuit number three</t>
-  </si>
-  <si>
-    <t>you are gonna grab those dumbbells again for this now</t>
-  </si>
-  <si>
-    <t>this may look familiar to you</t>
-  </si>
-  <si>
-    <t>you're going to go back to that</t>
-  </si>
-  <si>
-    <t>plie squat position toes out</t>
-  </si>
-  <si>
-    <t>we're gonna drop down curl the dumbbells rotate to a shoulder</t>
-  </si>
-  <si>
-    <t>press bring it all the way down</t>
-  </si>
-  <si>
-    <t>let's go down curl and press beautiful all right</t>
-  </si>
-  <si>
-    <t>this definitely works</t>
-  </si>
-  <si>
-    <t>I'm already feeling it breaking the sweat</t>
-  </si>
-  <si>
-    <t>good this is gonna get you nice and toned lean and right into the shape shape of our life the best shape of our lives right all the way down</t>
-  </si>
-  <si>
-    <t>good breathe good</t>
-  </si>
-  <si>
-    <t>give one more down</t>
-  </si>
-  <si>
-    <t>squeeze those abs in tight last one</t>
-  </si>
-  <si>
-    <t>press it up beautiful all right</t>
-  </si>
-  <si>
-    <t>C together for the next one</t>
-  </si>
-  <si>
-    <t>we're gonna work the triceps</t>
-  </si>
-  <si>
-    <t>you're gonna kick it back and switch sides other side good</t>
-  </si>
-  <si>
-    <t>let's go press those knuckles back towards the seat back towards the back of the room</t>
-  </si>
-  <si>
-    <t>so many walls going on right</t>
-  </si>
-  <si>
-    <t>we want the back of the room</t>
-  </si>
-  <si>
-    <t>good to reach arms toward the back</t>
-  </si>
-  <si>
-    <t>perfect we want to alternate keeping those elbows in by your side perfect</t>
-  </si>
-  <si>
-    <t>you're more than halfway there</t>
-  </si>
-  <si>
-    <t>okay keep going</t>
-  </si>
-  <si>
-    <t>I want five more five</t>
-  </si>
-  <si>
-    <t>four good breathe two more last one</t>
-  </si>
-  <si>
-    <t>you got it beautiful work you guys set those weights down we got our cardio moving this circuit</t>
-  </si>
-  <si>
-    <t>I want you to pretend like the groud’s hot</t>
-  </si>
-  <si>
-    <t>I'm so excited right now because the ground is hot you got to pick up your feet and then we're going to cool it down four high knees</t>
-  </si>
-  <si>
-    <t>just listen to my cue and go up up good arms and by your side like the ground was hot if you were in like a beautiful desert</t>
-  </si>
-  <si>
-    <t>I'm so hot</t>
-  </si>
-  <si>
-    <t>good run it now</t>
-  </si>
-  <si>
-    <t>cool it off high knees all right</t>
-  </si>
-  <si>
-    <t>I think it's getting hot in here</t>
-  </si>
-  <si>
-    <t>should we sand it off all right</t>
-  </si>
-  <si>
-    <t>good bring it in bring it in nice and tight</t>
-  </si>
-  <si>
-    <t>good pump your arms pump comes up up up</t>
-  </si>
-  <si>
-    <t>you didn't want us in this too much on you</t>
-  </si>
-  <si>
-    <t>did ya</t>
-  </si>
-  <si>
-    <t>knees up good good</t>
-  </si>
-  <si>
-    <t>we don't forget about that but oh it's hot it's hot it's hot it's hot it's hot it's hot it's hot good fan it off fan it off you're doing great good quick five four three two one and good tap it out catch your breath catch a sip air it out take a selfie circuit number four all right we're gonna get these dumbbells we're gonna work so excited about that booty work every time stick that back nice and flat still in position with a bicep curl let's go you guys flat back down up squeeze your glutes elbows in by your side bicep curl good repeat all the way down up and curl abs in tight on that curl (3 second silence) and curl nice now</t>
-  </si>
-  <si>
-    <t>I want you to make sure that you keep your back nice and flat when you go down elbows in and you curl it up</t>
-  </si>
-  <si>
-    <t>okay like that in the knees is gonna help with that flexibility and you curl good</t>
-  </si>
-  <si>
-    <t>remember to breathe hah</t>
-  </si>
-  <si>
-    <t>I know this is hard elbows in good but remember that breaths will help you beautiful</t>
-  </si>
-  <si>
-    <t>you want to take the dumbbells right down and curl them in good give two more and one more after this</t>
-  </si>
-  <si>
-    <t>let's all go together down and beautiful all right</t>
-  </si>
-  <si>
-    <t>set one weight down</t>
-  </si>
-  <si>
-    <t>we are gonna go into a squat</t>
-  </si>
-  <si>
-    <t>reverse lunge with a chop</t>
-  </si>
-  <si>
-    <t>one on each side squat reverse lunge you guys</t>
-  </si>
-  <si>
-    <t>let's get right into it</t>
-  </si>
-  <si>
-    <t>chest up squat reverse lunge back to the center squat up a want your supporting leg</t>
-  </si>
-  <si>
-    <t>want that knee to stay in line with that heel so look down</t>
-  </si>
-  <si>
-    <t>make sure your knee is in line with your heel on that reverse lunge chest up good take it straight back</t>
-  </si>
-  <si>
-    <t>Michelle let me see how you're doing beautiful and straight back</t>
-  </si>
-  <si>
-    <t>nice perfect last shoe and good last one everyone up down lunge perfect cardio</t>
-  </si>
-  <si>
-    <t>Moo set your weight down</t>
-  </si>
-  <si>
-    <t>we have mountain climbers with a hole</t>
-  </si>
-  <si>
-    <t>come down palms flat on the floor</t>
-  </si>
-  <si>
-    <t>you're going to run your knees in and in freeze and in three</t>
-  </si>
-  <si>
-    <t>let's go in in freeze in in freeze</t>
-  </si>
-  <si>
-    <t>good big exhale net freeze squeeze the ABS in tight and in breathe in in freeze</t>
-  </si>
-  <si>
-    <t>good five four</t>
-  </si>
-  <si>
-    <t>ah hold it three and squeeze</t>
-  </si>
-  <si>
-    <t>Chu and squeeze last one one and squeeze beautiful</t>
-  </si>
-  <si>
-    <t>stand it up shake it off you are done with that circuit</t>
-  </si>
-  <si>
-    <t>I'm gonna do a quick cool down so bring your feet apart</t>
-  </si>
-  <si>
-    <t>bring the arms all the way up</t>
-  </si>
-  <si>
-    <t>big inhale big exhale as you take it down have a big breath in interlock those hands take it to the side</t>
-  </si>
-  <si>
-    <t>feel that stretch see</t>
-  </si>
-  <si>
-    <t>all that took was a short amount of time to break that sweat</t>
-  </si>
-  <si>
-    <t>so those excuses that you don't have time roll your wrists all the way down</t>
-  </si>
-  <si>
-    <t>open it up those excuses</t>
-  </si>
-  <si>
-    <t>don't matter anymore you do have time</t>
-  </si>
-  <si>
-    <t>all you need is to set a little bit of time for yourself straight your legs and then you can go on with your day</t>
-  </si>
-  <si>
-    <t>roll it up feet together</t>
-  </si>
-  <si>
-    <t>big inhale and you are done you guys crush that every time you come into that room you get stronger you get better</t>
-  </si>
-  <si>
-    <t>we'll see you next time (3 second silence) hey</t>
-  </si>
-  <si>
-    <t>I'm Courtney pray there your be fit trainer</t>
-  </si>
-  <si>
-    <t>it can be hard to get all the vitamins and minerals one needs from food alone</t>
-  </si>
-  <si>
-    <t>I take a befit multivitamin which not only keeps me healthy and strong but also boost my metabolism</t>
-  </si>
-  <si>
-    <t>I love getting all the nutritious benefits in one pill</t>
+    <t>today's workout is a hundred percent</t>
+  </si>
+  <si>
+    <t>low impact it's all standing</t>
+  </si>
+  <si>
+    <t>it's ideal for new exercisers and people returning to exercise and it features real body project members enjoy</t>
+  </si>
+  <si>
+    <t>welcome to a real start plus</t>
+  </si>
+  <si>
+    <t>let's get the knees up into the hands guys</t>
+  </si>
+  <si>
+    <t>get the core nice and tight how you feeling you ready for this</t>
+  </si>
+  <si>
+    <t>Wade you ready Angie</t>
+  </si>
+  <si>
+    <t>this is the big one</t>
+  </si>
+  <si>
+    <t>the real start plus workout today and we have</t>
+  </si>
+  <si>
+    <t>Wade and Angie Mullins with us (2 second silence) and they're here to show you how it's done</t>
+  </si>
+  <si>
+    <t>I can't tell you how excited we are to have these guys all the way over from Vermont USA</t>
+  </si>
+  <si>
+    <t>keep that core tight</t>
+  </si>
+  <si>
+    <t>let's get the hamstrings warm now</t>
+  </si>
+  <si>
+    <t>little dip and breathe the real</t>
+  </si>
+  <si>
+    <t>Start Plus plan takes us further than the real start plan but please as always you can pause whenever you want to</t>
+  </si>
+  <si>
+    <t>you can take a break whenever you need to</t>
+  </si>
+  <si>
+    <t>we have got some tough stuff coming today</t>
+  </si>
+  <si>
+    <t>it's okay we do it</t>
+  </si>
+  <si>
+    <t>our way hands out in front core tight and we open up breathe breathe</t>
+  </si>
+  <si>
+    <t>Angie and Wade have both lost 60 pounds using body project workouts</t>
+  </si>
+  <si>
+    <t>and they're here to show us how it's done real people real workouts real results breathe today</t>
+  </si>
+  <si>
+    <t>we're just gonna enjoy ourselves and we're gonna dip and reach</t>
+  </si>
+  <si>
+    <t>we're just here to move</t>
+  </si>
+  <si>
+    <t>pause buttons there pause buttons your friend whenever you need to use it</t>
+  </si>
+  <si>
+    <t>we've got 40 seconds on and 20 seconds off with active marching recovery</t>
+  </si>
+  <si>
+    <t>that's a challenge</t>
+  </si>
+  <si>
+    <t>but you guys have got to pick your place in</t>
+  </si>
+  <si>
+    <t>there doesn't mean you have to do the whole thing</t>
+  </si>
+  <si>
+    <t>I just want you to finish with us</t>
+  </si>
+  <si>
+    <t>enjoy moving your body today</t>
+  </si>
+  <si>
+    <t>enjoy being with us</t>
+  </si>
+  <si>
+    <t>I feel lucky to be here with these wonderful body projectors and I hope you feel the same little march you feeling warm feeling ready for this</t>
+  </si>
+  <si>
+    <t>you're feeling warm</t>
+  </si>
+  <si>
+    <t>already we're gonna start with a 20 second march</t>
+  </si>
+  <si>
+    <t>we're kind of doing it now but I'm going to officially start it in a second and the first exercise is going to be a hooking knee with the left hand okay so we're going to start with the March we're gonna pick it up</t>
+  </si>
+  <si>
+    <t>three two one core tight 20 seconds</t>
+  </si>
+  <si>
+    <t>and we're gonna move straight into that hooking knee breathe breathe breathe</t>
+  </si>
+  <si>
+    <t>I'm gonna count us down into it</t>
+  </si>
+  <si>
+    <t>enjoying that march and coming forward in (2 second silence) three two (3 second silence) one with me hooking knee there we (3 second silence)</t>
+  </si>
+  <si>
+    <t>go so keeping nice and strong you can have weights with you like Angie</t>
+  </si>
+  <si>
+    <t>I'll be honest</t>
+  </si>
+  <si>
+    <t>I don't envy her one little bit</t>
+  </si>
+  <si>
+    <t>it's tough enough</t>
+  </si>
+  <si>
+    <t>you can go slow</t>
+  </si>
+  <si>
+    <t>you can go fast</t>
+  </si>
+  <si>
+    <t>it's your pace</t>
+  </si>
+  <si>
+    <t>let's dig let's work be strong</t>
+  </si>
+  <si>
+    <t>(2 second silence) nice deep breaths engage (2 second silence) work through</t>
+  </si>
+  <si>
+    <t>you've got that water</t>
+  </si>
+  <si>
+    <t>you've got that towel at any time</t>
+  </si>
+  <si>
+    <t>you can go to it and three in two and in one that was 40 seconds of work breathe</t>
+  </si>
+  <si>
+    <t>breathe get that energy back in focus good crisp movements good form</t>
+  </si>
+  <si>
+    <t>it's not about keeping up</t>
+  </si>
+  <si>
+    <t>it's about doing it right</t>
+  </si>
+  <si>
+    <t>we're gonna go over to the other side in three two one here</t>
+  </si>
+  <si>
+    <t>we go so the opposite side now really important</t>
+  </si>
+  <si>
+    <t>we got that core engaged</t>
+  </si>
+  <si>
+    <t>all our impact</t>
+  </si>
+  <si>
+    <t>(2 second silence)</t>
+  </si>
+  <si>
+    <t>everything we do here</t>
+  </si>
+  <si>
+    <t>we will start is one low impact and two standing so you could be confident that you can be involved and work out the whole way through</t>
+  </si>
+  <si>
+    <t>that's different than saying you have to do every single moment but you can be doing it with us (3 second silence) feeling this now already three two one</t>
+  </si>
+  <si>
+    <t>I'm loving this</t>
+  </si>
+  <si>
+    <t>feel the energy from these guys</t>
+  </si>
+  <si>
+    <t>deep breaths hydrate water</t>
+  </si>
+  <si>
+    <t>if you need it looking good their way the next exercise is gonna be a shoulder raise lunge shoulder raise lunge</t>
+  </si>
+  <si>
+    <t>I finally got that which is going to be (4 second silence) here three two one</t>
+  </si>
+  <si>
+    <t>here we go so the pace is high</t>
+  </si>
+  <si>
+    <t>you can go slow or you can go fast</t>
+  </si>
+  <si>
+    <t>it is called real Star</t>
+  </si>
+  <si>
+    <t>Plus in case you're already a little bit upset with us for the speed and the intensity but this is about taking your body on that bit further</t>
+  </si>
+  <si>
+    <t>feel good wherever you are if you need to break halfway through</t>
+  </si>
+  <si>
+    <t>it's about progress not perfection</t>
+  </si>
+  <si>
+    <t>do your best march whenever you have to be strong</t>
+  </si>
+  <si>
+    <t>three two and one and a nice march (2 second silence) next one is a touch and knee raise</t>
+  </si>
+  <si>
+    <t>okay and we're gonna touch and raise into the right knee so fast pace keep marching</t>
+  </si>
+  <si>
+    <t>if you have to three two one here we go so we touch one knee</t>
+  </si>
+  <si>
+    <t>forty seconds here</t>
+  </si>
+  <si>
+    <t>you're gonna find that that build up is intense through the planted leg</t>
+  </si>
+  <si>
+    <t>not the one that you're raising right</t>
+  </si>
+  <si>
+    <t>come on guys</t>
+  </si>
+  <si>
+    <t>let's work this</t>
+  </si>
+  <si>
+    <t>it's about desire</t>
+  </si>
+  <si>
+    <t>the physical body can do so much</t>
+  </si>
+  <si>
+    <t>it's in the mind about determination</t>
+  </si>
+  <si>
+    <t>that's what gets you through the moments</t>
+  </si>
+  <si>
+    <t>I know you can</t>
+  </si>
+  <si>
+    <t>I know you will in three two</t>
+  </si>
+  <si>
+    <t>and one and breathe (2 second silence) get that water</t>
+  </si>
+  <si>
+    <t>use that towel if you need to good work</t>
+  </si>
+  <si>
+    <t>Wade loving that extra effort</t>
+  </si>
+  <si>
+    <t>I can feel it Angie and them weights all right</t>
+  </si>
+  <si>
+    <t>I so don't envy you</t>
+  </si>
+  <si>
+    <t>we got straight punches</t>
+  </si>
+  <si>
+    <t>three two one</t>
+  </si>
+  <si>
+    <t>I practiced this workout the other day I've got about 20 seconds in with weights and I thought I'll give them to Angie</t>
+  </si>
+  <si>
+    <t>I don't think I can do that</t>
+  </si>
+  <si>
+    <t>not ready for that</t>
+  </si>
+  <si>
+    <t>it's tough enough as it is</t>
+  </si>
+  <si>
+    <t>keep that core strong</t>
+  </si>
+  <si>
+    <t>get them punches</t>
+  </si>
+  <si>
+    <t>out powerfully your best punches punch someone as always at body project you can punch anyone you like except Angie me or Wade that's off limits as much as you might want to</t>
+  </si>
+  <si>
+    <t>three two and one march it out</t>
+  </si>
+  <si>
+    <t>(2 second silence) deep breaths deep breaths feeling good (3 second silence)</t>
+  </si>
+  <si>
+    <t>we've got this</t>
+  </si>
+  <si>
+    <t>it's the touch and knee raise coming to the left</t>
+  </si>
+  <si>
+    <t>keep marching three two one so we come</t>
+  </si>
+  <si>
+    <t>we lift the left knee now</t>
+  </si>
+  <si>
+    <t>(3 second silence) keep that core strong</t>
+  </si>
+  <si>
+    <t>you can slow right down if you just want to put some squats in for a second as well</t>
+  </si>
+  <si>
+    <t>that's fine you can kind of stand to like this</t>
+  </si>
+  <si>
+    <t>I might have lost everybody there</t>
+  </si>
+  <si>
+    <t>but it's important to show you some different variations working through remember</t>
+  </si>
+  <si>
+    <t>this workout is designed to be tough</t>
+  </si>
+  <si>
+    <t>please press pause whenever you have to take an extra break</t>
+  </si>
+  <si>
+    <t>whenever you need to and march and breathe (3 second silence)</t>
+  </si>
+  <si>
+    <t>fortunately we've got a little bit of time off cardio now</t>
+  </si>
+  <si>
+    <t>that's the good news</t>
+  </si>
+  <si>
+    <t>the bad news is we've got some more tough work on the legs with some sidestep resistance in three two and one let's step it out now</t>
+  </si>
+  <si>
+    <t>work it through dig core strong</t>
+  </si>
+  <si>
+    <t>we got this feel the burn</t>
+  </si>
+  <si>
+    <t>believe in yourself believe you can because you can and you will (2 second silence) this workout</t>
+  </si>
+  <si>
+    <t>it's like an Everest</t>
+  </si>
+  <si>
+    <t>you got to keep stepping up</t>
+  </si>
+  <si>
+    <t>keep working on</t>
+  </si>
+  <si>
+    <t>its (2 second silence) here to find the place that you can get to working through three two and one and march it out good work there</t>
+  </si>
+  <si>
+    <t>Wade loving that bud</t>
+  </si>
+  <si>
+    <t>how are you going</t>
+  </si>
+  <si>
+    <t>Angie good Angie</t>
+  </si>
+  <si>
+    <t>I've been wanting to do that for years ANGIE right</t>
+  </si>
+  <si>
+    <t>I don't think Angie likes me as much as she did before</t>
+  </si>
+  <si>
+    <t>other side three two one here we go so</t>
+  </si>
+  <si>
+    <t>I like a little arm movement</t>
+  </si>
+  <si>
+    <t>remember the lower</t>
+  </si>
+  <si>
+    <t>you go the tougher it is if you feel a twinge in your lower back just stop immediately pushing through dig in it working hard suck up the adrenaline 40 seconds of work</t>
+  </si>
+  <si>
+    <t>keep working keep going (3 second silence) dig dig dig</t>
+  </si>
+  <si>
+    <t>come on we can ha we</t>
+  </si>
+  <si>
+    <t>will we got this three two one and march keep marching</t>
+  </si>
+  <si>
+    <t>I'm (4 second silence) gonna take a little breather to</t>
+  </si>
+  <si>
+    <t>it's ok take your time</t>
+  </si>
+  <si>
+    <t>don't rush</t>
+  </si>
+  <si>
+    <t>the clock keeps ticking</t>
+  </si>
+  <si>
+    <t>doesn't mean you have to three two one</t>
+  </si>
+  <si>
+    <t>we've got hamstring punches now so the opposite hamstring</t>
+  </si>
+  <si>
+    <t>we squeeze that muscle between the knee and the bum</t>
+  </si>
+  <si>
+    <t>it's called the hamstring and we throw a punch out</t>
+  </si>
+  <si>
+    <t>you can put a little dip in there as well if you want to be strong</t>
+  </si>
+  <si>
+    <t>be focused be determined (6 second silence) keep working come on come on stay focused stay engaged</t>
+  </si>
+  <si>
+    <t>(3 second silence) dig 3 2 1 (2 second silence)</t>
+  </si>
+  <si>
+    <t>I hope you're enjoying today's workout if you'd like to take part in the rest of the real</t>
+  </si>
+  <si>
+    <t>Start Plus plan with myself Angie and Wade come and join us at teen body project com</t>
+  </si>
+  <si>
+    <t>I don't really think it's fair to have the word just anywhere near this workout to be honest but it's there it's there loving the energy guys next up we've got oblique crunches it's gonna be two crunches on each side</t>
+  </si>
+  <si>
+    <t>okay are you ready</t>
+  </si>
+  <si>
+    <t>(3 second silence) deep breathes</t>
+  </si>
+  <si>
+    <t>remember you can pump out the march or you can just walk it out</t>
+  </si>
+  <si>
+    <t>both of them are good</t>
+  </si>
+  <si>
+    <t>we're winners</t>
+  </si>
+  <si>
+    <t>we're winning this is the halfway mark three two one here</t>
+  </si>
+  <si>
+    <t>we go two one two and again one</t>
+  </si>
+  <si>
+    <t>two we pause in the middle one two so (11 second silence) you're really then get that action on the oblique</t>
+  </si>
+  <si>
+    <t>(2 second silence) squeezing that muscle down here</t>
+  </si>
+  <si>
+    <t>don't worry if it takes you a second to get (3 second silence) it keep working through one (3 second silence) two one two almost halfway</t>
+  </si>
+  <si>
+    <t>well they might have a cheeky surprise for everybody who (2 second silence) knows three two and one get some water guys hydrate halfway mark (5 second silence) believe it or not</t>
+  </si>
+  <si>
+    <t>I have designed this workout to be enjoyed</t>
+  </si>
+  <si>
+    <t>I have designed this workout for you guys to enjoy moving I feel like a bit of a fibber</t>
+  </si>
+  <si>
+    <t>(2 second silence) feeling that adrenaline working through</t>
+  </si>
+  <si>
+    <t>now though</t>
+  </si>
+  <si>
+    <t>yeah you're feeling good this second half we're gonna put in even more than the first half we're gonna really show how we can do it how we can roll our best effort your personal best effort not my best not</t>
+  </si>
+  <si>
+    <t>Wade's best not Angie's best</t>
+  </si>
+  <si>
+    <t>your best effort is what</t>
+  </si>
+  <si>
+    <t>I want to see now</t>
+  </si>
+  <si>
+    <t>come on</t>
+  </si>
+  <si>
+    <t>we're gonna move back into the hook and knees left hand first in three come on in two and one</t>
+  </si>
+  <si>
+    <t>let's go now come on</t>
+  </si>
+  <si>
+    <t>let's dig</t>
+  </si>
+  <si>
+    <t>ah breathe it through work</t>
+  </si>
+  <si>
+    <t>it through core strong (2 second silence)</t>
+  </si>
+  <si>
+    <t>we got it we got it</t>
+  </si>
+  <si>
+    <t>come on come on come on big effort big effort that pain</t>
+  </si>
+  <si>
+    <t>you're stronger than the pain</t>
+  </si>
+  <si>
+    <t>you're stronger than anything you can do this</t>
+  </si>
+  <si>
+    <t>come on work through</t>
+  </si>
+  <si>
+    <t>change your body change your life</t>
+  </si>
+  <si>
+    <t>everything's coming for you now</t>
+  </si>
+  <si>
+    <t>this starts right now</t>
+  </si>
+  <si>
+    <t>it starts with the next punch it starts with the next knee</t>
+  </si>
+  <si>
+    <t>three two and one (4 second silence) channeling it up now feeling it work (4 second silence) big energy big drive big desire three two one</t>
+  </si>
+  <si>
+    <t>come on let's do this</t>
+  </si>
+  <si>
+    <t>we (7 second silence) can keep breathing</t>
+  </si>
+  <si>
+    <t>keep that core strong every punch</t>
+  </si>
+  <si>
+    <t>every moment (2 second silence) every single second matters</t>
+  </si>
+  <si>
+    <t>if you need to pull up to come back and love that take a few seconds</t>
+  </si>
+  <si>
+    <t>gather yourself come back in</t>
+  </si>
+  <si>
+    <t>it's all winning</t>
+  </si>
+  <si>
+    <t>every single moment that passes push push push work three two and one and march</t>
+  </si>
+  <si>
+    <t>this is tough stuff</t>
+  </si>
+  <si>
+    <t>this is real stuff this is the real (2 second silence) start big breaths (2 second silence) if</t>
+  </si>
+  <si>
+    <t>I were where you are right now and I didn't have these guys watching</t>
+  </si>
+  <si>
+    <t>I'd be taking an extra cheeky break but I'm gonna go three two one here</t>
+  </si>
+  <si>
+    <t>we go get that core strong engage</t>
+  </si>
+  <si>
+    <t>we got it</t>
+  </si>
+  <si>
+    <t>we can (2 second silence) perseverance resilience desire</t>
+  </si>
+  <si>
+    <t>they're the things that matter</t>
+  </si>
+  <si>
+    <t>health is in the mind more than in the body</t>
+  </si>
+  <si>
+    <t>your strength is in your character</t>
+  </si>
+  <si>
+    <t>(2 second silence) in your heart if you like in your spirit that's where we succeed three two and one we march (2 second silence) next up touching knee raises</t>
+  </si>
+  <si>
+    <t>we know these are tough</t>
+  </si>
+  <si>
+    <t>we know these hurts your mind ready</t>
+  </si>
+  <si>
+    <t>you might want to march slow</t>
+  </si>
+  <si>
+    <t>you can pump</t>
+  </si>
+  <si>
+    <t>the march for the good (2 second silence)</t>
+  </si>
+  <si>
+    <t>breathe breathe in three two one</t>
+  </si>
+  <si>
+    <t>remember you do not have to touch the floor</t>
+  </si>
+  <si>
+    <t>just go as low as you can and bring that knee up</t>
+  </si>
+  <si>
+    <t>it's the standing leg that gets that deep burn you know what</t>
+  </si>
+  <si>
+    <t>I call it</t>
+  </si>
+  <si>
+    <t>I call that change juice</t>
+  </si>
+  <si>
+    <t>it hurts</t>
+  </si>
+  <si>
+    <t>yes it burns yes but there</t>
+  </si>
+  <si>
+    <t>it is flowing through your body and changing your body</t>
+  </si>
+  <si>
+    <t>that's what matters</t>
+  </si>
+  <si>
+    <t>that's what counts</t>
+  </si>
+  <si>
+    <t>we got (2 second silence) this desire drive determination taking it up a level with a real start plus today if you're here today you're a warrior</t>
+  </si>
+  <si>
+    <t>you're a winner and you're win three two and one make no mistake about that</t>
+  </si>
+  <si>
+    <t>this is different gravy</t>
+  </si>
+  <si>
+    <t>this is another gear yet</t>
+  </si>
+  <si>
+    <t>here we are here</t>
+  </si>
+  <si>
+    <t>we stand marching on in to the power punches and I want these to be your best punches</t>
+  </si>
+  <si>
+    <t>not your second best punches</t>
+  </si>
+  <si>
+    <t>I want them to be your best</t>
+  </si>
+  <si>
+    <t>you aim them right down the pipe three two one</t>
+  </si>
+  <si>
+    <t>let's go 40 seconds</t>
+  </si>
+  <si>
+    <t>I want to see come on Wade</t>
+  </si>
+  <si>
+    <t>show me that game face</t>
+  </si>
+  <si>
+    <t>show me show me come on</t>
+  </si>
+  <si>
+    <t>come on let's go</t>
+  </si>
+  <si>
+    <t>let's punch let's work</t>
+  </si>
+  <si>
+    <t>let's get that core tight power feeling that come on</t>
+  </si>
+  <si>
+    <t>Angie come on all the way out now all the way out look at that speed and power</t>
+  </si>
+  <si>
+    <t>that's drive that's determination</t>
+  </si>
+  <si>
+    <t>two game faces</t>
+  </si>
+  <si>
+    <t>come on come on</t>
+  </si>
+  <si>
+    <t>I can't keep up with this</t>
+  </si>
+  <si>
+    <t>it's intense so that's what we're doing</t>
+  </si>
+  <si>
+    <t>we're here for it</t>
+  </si>
+  <si>
+    <t>we came here</t>
+  </si>
+  <si>
+    <t>we got to put it in personal best personal best effort</t>
+  </si>
+  <si>
+    <t>come on all the way out all the way out the enemy's coming three two one that is what I call an intense punching session</t>
+  </si>
+  <si>
+    <t>(2 second silence) deep breathes</t>
+  </si>
+  <si>
+    <t>we are almost there</t>
+  </si>
+  <si>
+    <t>I can see the finish line</t>
+  </si>
+  <si>
+    <t>I mean it's not right there but we're getting there up next three</t>
+  </si>
+  <si>
+    <t>two one touching touching knee opposite knee now feeling it working through (2 second silence)</t>
+  </si>
+  <si>
+    <t>I am so dripping feel like I'm standing under Niagara Falls</t>
+  </si>
+  <si>
+    <t>I gotta keep going core strong desire</t>
+  </si>
+  <si>
+    <t>now push push dig</t>
+  </si>
+  <si>
+    <t>come on you've got this</t>
+  </si>
+  <si>
+    <t>they're gonna feel the waterfalls of progress washing over us haha stay with it dig</t>
+  </si>
+  <si>
+    <t>three two (2 second silence) and one and march there's not much in the tank now</t>
+  </si>
+  <si>
+    <t>(4 second silence) there's not much in (2 second silence) the tank</t>
+  </si>
+  <si>
+    <t>but we got to do it</t>
+  </si>
+  <si>
+    <t>you've got that sidestep</t>
+  </si>
+  <si>
+    <t>it's coming next right</t>
+  </si>
+  <si>
+    <t>foot planted three two one (8 second silence)</t>
+  </si>
+  <si>
+    <t>that's a deep burn</t>
+  </si>
+  <si>
+    <t>come on let's work dig</t>
+  </si>
+  <si>
+    <t>(9 second silence) ah (3 second silence) low impact standing</t>
+  </si>
+  <si>
+    <t>who said you need high impact to get a fantastic heart raising super tough body changing life transforming workout</t>
+  </si>
+  <si>
+    <t>three two and one and breathe and breathe the other side</t>
+  </si>
+  <si>
+    <t>the other side (8 second silence) come on left foot planted three two and one</t>
+  </si>
+  <si>
+    <t>let's go the active recoveries are making this level 4 work out the official rating is 3</t>
+  </si>
+  <si>
+    <t>I'm going to tell you</t>
+  </si>
+  <si>
+    <t>now that's the trick into you pressing play</t>
+  </si>
+  <si>
+    <t>I'll be honest I (2 second silence) kind of make up a little bit of a lie to getting you in come on come on (4 second silence) it's gotta be then you've got to find it from somewhere</t>
+  </si>
+  <si>
+    <t>this is no longer physical understand that your body wants to give up</t>
+  </si>
+  <si>
+    <t>it wants to stop</t>
+  </si>
+  <si>
+    <t>only the mind can win at this point</t>
+  </si>
+  <si>
+    <t>3 2 1 (3 second silence)</t>
+  </si>
+  <si>
+    <t>oh big breathes</t>
+  </si>
+  <si>
+    <t>Wade (2 second silence)</t>
+  </si>
+  <si>
+    <t>big breaths big breathes</t>
+  </si>
+  <si>
+    <t>I'm feeling it with you buddy</t>
+  </si>
+  <si>
+    <t>I'm feeling the pain (2 second silence)</t>
+  </si>
+  <si>
+    <t>we're all there</t>
+  </si>
+  <si>
+    <t>it's good pain</t>
+  </si>
+  <si>
+    <t>I'm glad you think that Wade</t>
+  </si>
+  <si>
+    <t>I'm not so sure right now</t>
+  </si>
+  <si>
+    <t>three two one here</t>
+  </si>
+  <si>
+    <t>we go hamstring punches and I almost lost my bearings</t>
+  </si>
+  <si>
+    <t>nice and strong core tight</t>
+  </si>
+  <si>
+    <t>we're actually switching out the last exercise which was obliques before because</t>
+  </si>
+  <si>
+    <t>I want to keep the energy high and I've got a little treat for you</t>
+  </si>
+  <si>
+    <t>it's called run punch star</t>
+  </si>
+  <si>
+    <t>it's 20 seconds of each of them back to back so 20 seconds of marching fast or running 20 seconds of punches and 20 seconds and ease and 20 seconds</t>
+  </si>
+  <si>
+    <t>keep your bodies moving and 20 seconds of your choice of stars</t>
+  </si>
+  <si>
+    <t>Angie's going high impact me and Wade</t>
+  </si>
+  <si>
+    <t>we're going low fast march or run power punches and stars in three 60 seconds</t>
+  </si>
+  <si>
+    <t>two and one here</t>
+  </si>
+  <si>
+    <t>we go fast as you can now core strong</t>
+  </si>
+  <si>
+    <t>let's push come on come on</t>
+  </si>
+  <si>
+    <t>Angie come on</t>
+  </si>
+  <si>
+    <t>she's putting some punches in</t>
+  </si>
+  <si>
+    <t>I love that spirit</t>
+  </si>
+  <si>
+    <t>look at that three</t>
+  </si>
+  <si>
+    <t>come on two and one and we're straight in punches</t>
+  </si>
+  <si>
+    <t>let's go 20 seconds of punches power power come on</t>
+  </si>
+  <si>
+    <t>Wade all the way now bud all the way all the way all the way out Angie all the way out come on come on Wade focusing focus it three two and one and stars</t>
+  </si>
+  <si>
+    <t>let's go 20 seconds of stars</t>
+  </si>
+  <si>
+    <t>ahh we can see</t>
+  </si>
+  <si>
+    <t>the finish</t>
+  </si>
+  <si>
+    <t>line (2 second silence) like thoroughbred horses</t>
+  </si>
+  <si>
+    <t>we are running to it</t>
+  </si>
+  <si>
+    <t>that's how we feel</t>
+  </si>
+  <si>
+    <t>that's who we are three two and one and March oh I'm really sorry about this guy's we're doing it again (3 second silence) but I'm changing the order we're gonna go runs stars and then I want to see punches like Bruce Muhammad Ali</t>
+  </si>
+  <si>
+    <t>three two one start with a run the last 60 seconds today into the star and then punch like you mean it</t>
+  </si>
+  <si>
+    <t>come on come on (4 second silence)</t>
+  </si>
+  <si>
+    <t>let's work three two one stars</t>
+  </si>
+  <si>
+    <t>let's go (4 second silence) stay with it desire drive</t>
+  </si>
+  <si>
+    <t>come on let's push let's work</t>
+  </si>
+  <si>
+    <t>let's dig (3 second silence) first workout almost done three two one and punch come on</t>
+  </si>
+  <si>
+    <t>I want to see the very most powerful punches</t>
+  </si>
+  <si>
+    <t>you've got that's it</t>
+  </si>
+  <si>
+    <t>Wade come on come on</t>
+  </si>
+  <si>
+    <t>show us how it's done everybody's there everybody's with us fight push work come on</t>
+  </si>
+  <si>
+    <t>Angie look at the speed ha work through now come on drive desire</t>
+  </si>
+  <si>
+    <t>push dig three come on two one</t>
+  </si>
+  <si>
+    <t>(2 second silence) come on (2 second silence) great job</t>
+  </si>
+  <si>
+    <t>Angie great job (4 second silence) come here first</t>
+  </si>
+  <si>
+    <t>ever buddies project work out</t>
+  </si>
+  <si>
+    <t>how well did these guys do</t>
+  </si>
+  <si>
+    <t>it is like we've all been in the shower right</t>
+  </si>
+  <si>
+    <t>yeah let's get stretched off</t>
+  </si>
+  <si>
+    <t>what a fantastic effort keep marching</t>
+  </si>
+  <si>
+    <t>keep moving little side steps now</t>
+  </si>
+  <si>
+    <t>that is what</t>
+  </si>
+  <si>
+    <t>I call a kick off workout</t>
+  </si>
+  <si>
+    <t>I just figured if you're gonna be here of filming we might as well go in at the deep end right we might as well just go in and get it done</t>
+  </si>
+  <si>
+    <t>how good does it feel</t>
+  </si>
+  <si>
+    <t>now how good do you feel having done that session today</t>
+  </si>
+  <si>
+    <t>little open up at the arms</t>
+  </si>
+  <si>
+    <t>we're gonna start our stretch</t>
+  </si>
+  <si>
+    <t>we'll just let that heart rate</t>
+  </si>
+  <si>
+    <t>come down it takes a little while and stretch out right leg first with the quad</t>
+  </si>
+  <si>
+    <t>core tight (2 second silence) nice deep breaths (8 second silence) and then change over to the other side (8 second silence) breathe in deep</t>
+  </si>
+  <si>
+    <t>I am honestly still struggling to get my breath back</t>
+  </si>
+  <si>
+    <t>that's how it's feeling like a nice stretch through the quads low impact</t>
+  </si>
+  <si>
+    <t>I'll say again all standing</t>
+  </si>
+  <si>
+    <t>that was a body changing</t>
+  </si>
+  <si>
+    <t>change juice filled workout core strong</t>
+  </si>
+  <si>
+    <t>and as long as you're here stretching with us whether you press pause 20 times whether you did half of each section or 10 percent of each section it doesn't matter because you can come back tomorrow and do a little bit more if you marched through the whole session</t>
+  </si>
+  <si>
+    <t>that's great never question yourself every moment that you move your body is a step towards the outcome that you want</t>
+  </si>
+  <si>
+    <t>it's not gonna be dramatic</t>
+  </si>
+  <si>
+    <t>change comes because of consistent decisions and the day is a workout but done however you did with it it is done it is the win and nobody can take that away from you now</t>
+  </si>
+  <si>
+    <t>it's a win we've won it's</t>
   </si>
 </sst>
 </file>
@@ -873,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>99.98089671134949</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -906,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -931,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>97.16835021972656</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -939,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -961,10 +1504,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>99.99996423721313</v>
+        <v>99.99974966049194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -975,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>99.99994039535522</v>
+        <v>99.9972939491272</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -983,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>99.99983310699463</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -994,10 +1537,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>99.99903440475464</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1005,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1019,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1030,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>99.99998807907104</v>
+        <v>99.75234866142273</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1041,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>99.9112069606781</v>
+        <v>99.99934434890747</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1049,10 +1592,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>99.99693632125854</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1063,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>99.86864924430847</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1074,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>99.99977350234985</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1085,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>99.99994039535522</v>
+        <v>99.9997615814209</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1096,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>99.99997615814209</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1104,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -1115,10 +1658,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1129,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>99.99994039535522</v>
+        <v>98.4327495098114</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1137,10 +1680,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1151,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>99.99978542327881</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1173,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>93.96571516990662</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1184,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1195,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>99.99473094940186</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1206,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>99.99133348464966</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1214,10 +1757,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1225,10 +1768,10 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>99.9915599822998</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1236,10 +1779,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>99.99930858612061</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1247,10 +1790,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>99.99898672103882</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1294,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1305,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>99.99997615814209</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1327,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>99.99998807907104</v>
+        <v>99.57413673400879</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1335,10 +1878,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>99.99927282333374</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1346,7 +1889,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>100</v>
@@ -1357,10 +1900,10 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>99.99998807907104</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1371,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1382,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>99.99980926513672</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1390,10 +1933,10 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>99.99936819076538</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1404,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>99.99998807907104</v>
+        <v>99.67779517173767</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1415,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>99.9998927116394</v>
+        <v>99.99964237213135</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1426,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>99.99984502792358</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1437,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1448,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>99.99929666519165</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1456,10 +1999,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>99.99933242797852</v>
+        <v>66.74056053161621</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1470,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>99.99922513961792</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1492,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>99.99988079071045</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1503,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>99.99997615814209</v>
+        <v>99.99972581863403</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1522,10 +2065,10 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>88.86309862136841</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1536,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>100</v>
+        <v>99.99984502792358</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1544,10 +2087,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>100</v>
+        <v>99.81091022491455</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1558,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>89.74702954292297</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1569,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>99.99537467956543</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1577,10 +2120,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>100</v>
+        <v>99.99781847000122</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1588,7 +2131,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>100</v>
@@ -1602,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>100</v>
+        <v>99.99973773956299</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1613,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>97.7942943572998</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1624,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>99.99489784240723</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1635,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1654,10 +2197,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>99.99994039535522</v>
+        <v>99.87020492553711</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1668,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>100</v>
+        <v>57.58045315742493</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1687,10 +2230,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>100</v>
+        <v>99.8264491558075</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1742,10 +2285,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>88.20975422859192</v>
+        <v>93.74159574508667</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1767,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1778,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>99.9997615814209</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1789,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>99.99992847442627</v>
+        <v>99.97516274452209</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1800,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>100</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1808,10 +2351,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>100</v>
+        <v>99.81174468994141</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1822,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>99.99988079071045</v>
+        <v>99.99972581863403</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1833,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1841,10 +2384,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>99.99850988388062</v>
+        <v>87.84030079841614</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1852,10 +2395,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>82.39760994911194</v>
+        <v>99.99797344207764</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1866,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>74.03348088264465</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1877,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="D91">
-        <v>99.99998807907104</v>
+        <v>99.97230172157288</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1888,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="D92">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1896,10 +2439,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>99.98767375946045</v>
+        <v>99.9738872051239</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1907,7 +2450,7 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>100</v>
@@ -1921,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>99.42518472671509</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1932,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="D96">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1940,10 +2483,10 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>100</v>
+        <v>99.64058995246887</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1951,7 +2494,7 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>100</v>
@@ -1965,67 +2508,67 @@
         <v>2</v>
       </c>
       <c r="D99">
-        <v>99.89904761314392</v>
+        <v>99.99979734420776</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>99.91976618766785</v>
+        <v>99.99984502792358</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>99.99990463256836</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>99.99933242797852</v>
+        <v>99.98102784156799</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <v>99.89421963691711</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2036,29 +2579,29 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>99.96782541275024</v>
+        <v>99.99456405639648</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>99.99421834945679</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2069,7 +2612,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2080,18 +2623,18 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>99.98403787612915</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -2102,7 +2645,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -2113,7 +2656,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -2124,139 +2667,139 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>99.99992847442627</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>99.99765157699585</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>100</v>
+        <v>99.59557056427002</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>100</v>
+        <v>99.99969005584717</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>100</v>
+        <v>99.60421323776245</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>100</v>
+        <v>99.99357461929321</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>99.99915361404419</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>100</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>100</v>
+        <v>99.24617409706116</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2267,87 +2810,87 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>100</v>
+        <v>68.20457577705383</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>100</v>
+        <v>99.98006224632263</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>86.68943643569946</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>95.32052278518677</v>
+        <v>77.8922975063324</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>99.99949932098389</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>99.99991655349731</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>100</v>
@@ -2355,51 +2898,51 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>99.99997615814209</v>
+        <v>99.1827130317688</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>99.98063445091248</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>85.05714535713196</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -2410,18 +2953,18 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -2432,62 +2975,62 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>99.99998807907104</v>
+        <v>52.77190208435059</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>100</v>
+        <v>99.99852180480957</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>100</v>
+        <v>98.95802140235901</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>100</v>
+        <v>99.9796450138092</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147">
         <v>2</v>
@@ -2498,65 +3041,65 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>99.99996423721313</v>
+        <v>99.44407343864441</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>100</v>
+        <v>80.96778988838196</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>100</v>
+        <v>96.88242077827454</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151">
-        <v>99.9970555305481</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>99.99951124191284</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
         <v>100</v>
@@ -2564,84 +3107,84 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>50.00947117805481</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
       <c r="D156">
-        <v>100</v>
+        <v>99.99548196792603</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157">
-        <v>100</v>
+        <v>99.991774559021</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159">
-        <v>100</v>
+        <v>99.97072815895081</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160">
-        <v>100</v>
+        <v>99.99923706054688</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -2652,131 +3195,131 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
       <c r="D162">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>59.84077453613281</v>
+        <v>99.99986886978149</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>99.99948740005493</v>
+        <v>99.99984502792358</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165">
-        <v>99.94229078292847</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
       <c r="D166">
-        <v>99.99998807907104</v>
+        <v>71.06571793556213</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>99.99912977218628</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>100</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="D169">
-        <v>100</v>
+        <v>99.99850988388062</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>100</v>
+        <v>95.83425521850586</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>99.99089241027832</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
         <v>100</v>
@@ -2784,24 +3327,2081 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>100</v>
+        <v>96.8858540058136</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>107</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175">
-        <v>100</v>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>99.65755343437195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>99.65755343437195</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>99.9911904335022</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>184</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>185</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>186</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>99.996018409729</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>99.99994039535522</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>99.99995231628418</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>99.99983310699463</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>192</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>194</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>99.99775886535645</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>195</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>196</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>99.96150732040405</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>197</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>198</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>75.63840746879578</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>99.99992847442627</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>200</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>99.99992847442627</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>201</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>99.98407363891602</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>202</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>204</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>99.99434947967529</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>205</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>57.17958211898804</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>99.9359667301178</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+      <c r="D212">
+        <v>99.37750101089478</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>99.97432827949524</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>99.99982118606567</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>99.99983310699463</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>217</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>94.03480291366577</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>219</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>220</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>99.99994039535522</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>221</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>99.9998927116394</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>222</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>223</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>99.99772310256958</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>224</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>99.99566078186035</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>227</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>99.99936819076538</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>228</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>92.18307137489319</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>229</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>96.47130966186523</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>230</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>231</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>232</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>233</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>234</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>235</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>99.7957706451416</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>236</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>99.99995231628418</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>237</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>238</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>239</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>97.36179113388062</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>240</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>241</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>99.99971389770508</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>242</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>99.99991655349731</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>243</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>99.99969005584717</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>244</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>245</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>99.99995231628418</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>246</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>99.99991655349731</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>247</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>99.99964237213135</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>248</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>99.99805688858032</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>249</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>99.99994039535522</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>250</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>98.59563112258911</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>251</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>99.9925971031189</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>252</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>99.99797344207764</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>253</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>99.99959468841553</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>254</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>99.99994039535522</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>255</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>256</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>257</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>258</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>259</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>260</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>99.33035969734192</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>261</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>99.7062623500824</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>262</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>83.91690850257874</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>263</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>264</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>265</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>99.99991655349731</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>266</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>267</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>99.9671459197998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>244</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>268</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>99.99986886978149</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>269</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>99.87842440605164</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>270</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>99.99817609786987</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>271</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>272</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>273</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>274</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>99.99972581863403</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>275</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>276</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>99.92571473121643</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>277</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>278</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <v>99.99918937683105</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>279</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>99.9994158744812</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>280</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>281</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>63.06709051132202</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>282</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>93.46849918365479</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>283</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>99.99908208847046</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>284</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>99.99986886978149</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>285</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>99.99666213989258</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>286</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>99.92678761482239</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>287</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>63.5959267616272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>288</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>289</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>99.98493194580078</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>290</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>291</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>67.21416115760803</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>292</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>61</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>99.99984502792358</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>293</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298">
+        <v>99.99984502792358</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>294</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>99.99995231628418</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>295</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>95.81019282341003</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>296</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>297</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>298</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>99.99980926513672</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>299</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>300</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305">
+        <v>99.99977350234985</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>301</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>302</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>303</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+      <c r="D308">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>304</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>305</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>306</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>99.99994039535522</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>307</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>308</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>309</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>99.96657371520996</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>310</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>311</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>94.40463781356812</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>312</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>99.33951497077942</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>313</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318">
+        <v>99.99970197677612</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>314</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>315</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320">
+        <v>97.75791764259338</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>316</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>99.95207786560059</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>317</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>99.99320507049561</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>318</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>319</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>320</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+      <c r="D325">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>321</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>322</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+      <c r="D327">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>323</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>78.86449098587036</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>324</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+      <c r="D329">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>325</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>326</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>327</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>328</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>329</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>330</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335">
+        <v>99.99904632568359</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>331</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>332</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>99.99984502792358</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>333</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>334</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>99.99994039535522</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>335</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+      <c r="D340">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>336</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>99.99293088912964</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>61</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>99.99984502792358</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>337</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>61.72583699226379</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>338</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344">
+        <v>98.14167022705078</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>339</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>340</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>99.98070597648621</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>341</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>342</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348">
+        <v>99.99666213989258</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>343</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349">
+        <v>99.95710253715515</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>344</v>
+      </c>
+      <c r="C350">
+        <v>2</v>
+      </c>
+      <c r="D350">
+        <v>99.99015331268311</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>345</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>346</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+      <c r="D352">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>347</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+      <c r="D353">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>348</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>349</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>99.80594515800476</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>350</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>66.23755097389221</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>351</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>99.99983310699463</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>352</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>97.30446338653564</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>353</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>77.00127959251404</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>354</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+      <c r="D360">
+        <v>99.99978542327881</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>355</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>92.62744188308716</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>356</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>99.99779462814331</v>
       </c>
     </row>
   </sheetData>
